--- a/results.xlsx
+++ b/results.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -416,9 +416,4016 @@
         <v>Recognition Result</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>49feae96-ee5f-4cbc-a857-979ed412e8f2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1742661043205</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Match Found</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>46280e34-0c3e-4a47-970e-f286e40e7835</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1742661103226</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Match Found</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>e9e19f7f-f679-4ee2-b7a7-a3b186f04f8c</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1742661247360</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Match Found</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>1c764fbd-0174-43ad-a142-aac0294cd0f7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1742661286036</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Match Found</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>da90af91-9857-42ca-b279-8620fe9c2875</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1742661301058</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Match Found</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>08c27c20-6aa8-4afd-88fd-6856b5c8aa71</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1742661316084</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Match Found</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>541859da-9635-4d52-9eb7-41ba8bb71e5c</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1742661340421</v>
+      </c>
+      <c r="D8" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>bc7efc19-33dc-48b6-9a2e-66a20ed11422</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1742661345456</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Match Found</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>d760e4b6-c61a-409f-863b-42627e03669c</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1742661350468</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Match Found</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>405935ee-e222-4674-8287-7370d64334fa</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1742661355498</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Match Found</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>4e68eb60-c11a-4040-8717-5ff211d1cf7b</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1742662241874</v>
+      </c>
+      <c r="D12" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>d5df819b-f4b7-4dcf-9dbb-53f5500e31a5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1742662246883</v>
+      </c>
+      <c r="D13" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>27c4c387-60a7-4ee9-850d-c7f780275118</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1742662251904</v>
+      </c>
+      <c r="D14" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>ff59ff09-738b-4b1d-a5c2-03b689e56da9</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1742662256926</v>
+      </c>
+      <c r="D15" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>4c76ed59-511e-4fe7-bd0e-b62412fae709</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1742662261945</v>
+      </c>
+      <c r="D16" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>7ace75a3-6986-46e3-a0bf-9424da09dbf3</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>1742662266960</v>
+      </c>
+      <c r="D17" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>faf78727-2ae5-4322-874e-709ea544bea2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1742662638224</v>
+      </c>
+      <c r="D18" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>ea60e892-3312-4065-b0b0-e5592c4842f8</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1742662643244</v>
+      </c>
+      <c r="D19" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>7e76398f-17cd-4d69-a2cb-41b340f16565</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1742662648274</v>
+      </c>
+      <c r="D20" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>9543d2a5-681c-42a6-8861-7beb5114ea31</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1742662653281</v>
+      </c>
+      <c r="D21" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>3946ce7c-98e7-4bf1-949e-7dbb7c9b54b5</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>1742662658299</v>
+      </c>
+      <c r="D22" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>37d7caef-f4e9-4f61-bb61-e0c86a848c67</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>1742662663318</v>
+      </c>
+      <c r="D23" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2016f351-e9c7-41fa-880c-426c7e9795a6</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>1742662668334</v>
+      </c>
+      <c r="D24" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>975a2ae4-775e-4ac3-a870-89ed60e73a74</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>1742662673355</v>
+      </c>
+      <c r="D25" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>b94f6e81-9dfb-4f2d-adde-6591d2dbd36a</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>1742662678368</v>
+      </c>
+      <c r="D26" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>ca70f439-87dc-4a7c-8e60-1a749139ebb2</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>1742662683381</v>
+      </c>
+      <c r="D27" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>8983ef77-5871-478b-8088-1339f505f11f</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>1742662688397</v>
+      </c>
+      <c r="D28" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>977c382a-bdc7-4f3e-9fac-fa329915cfe1</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>1742662693424</v>
+      </c>
+      <c r="D29" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>4df381c0-e1ff-412c-975c-c14dfe0e0228</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>1742662698446</v>
+      </c>
+      <c r="D30" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>45687684-9730-4c17-ac08-f4928b87e42e</v>
+      </c>
+      <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>1742662703463</v>
+      </c>
+      <c r="D31" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>b58354b8-37fa-41b1-9d18-c93ad8f60752</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>1742662708495</v>
+      </c>
+      <c r="D32" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>0549d2b0-0a1f-4949-bc9e-aff91d8bff86</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>1742662713507</v>
+      </c>
+      <c r="D33" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>f3ae4f96-7f0a-4066-bc4c-86e615a6d10a</v>
+      </c>
+      <c r="B34">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>1742662718533</v>
+      </c>
+      <c r="D34" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>9898c871-31be-473b-b3c0-520f75bb431b</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>1742662723550</v>
+      </c>
+      <c r="D35" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>5ac84137-9498-470d-8627-920a72d137c1</v>
+      </c>
+      <c r="B36">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>1742662728566</v>
+      </c>
+      <c r="D36" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>e4a99be9-8cb4-40f7-9722-ea4305451a25</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1742663217631</v>
+      </c>
+      <c r="D37" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>49367209-59ed-4e9f-b626-032ecece5459</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>1742663222648</v>
+      </c>
+      <c r="D38" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>605d3ce9-16b4-4a22-9874-77beb0c37dd2</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>1742663227666</v>
+      </c>
+      <c r="D39" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>6c5b0e8d-7d6f-4b94-a1fc-0e07c47981a3</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>1742663232688</v>
+      </c>
+      <c r="D40" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>e3a584f2-c1ab-42ff-b25a-dc48a746b92e</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>1742663237712</v>
+      </c>
+      <c r="D41" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>50fb8778-2eeb-4a6a-8bc7-26dc9166cb39</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>1742663242730</v>
+      </c>
+      <c r="D42" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>1ec4855c-dd42-4407-8615-5f368ddf3979</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>1742663247750</v>
+      </c>
+      <c r="D43" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>b50ff179-54f7-4e41-93a8-ac9a4a764396</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>1742663252773</v>
+      </c>
+      <c r="D44" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>5fc03341-073c-48c4-858f-0e3a2f51d102</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>1742663257797</v>
+      </c>
+      <c r="D45" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>aaaf0cc0-4196-4b9b-8896-6aaddc649edc</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>1742663262829</v>
+      </c>
+      <c r="D46" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>fdb0ee26-b3ef-483f-a880-d6ae7c84d2f6</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>1742663267855</v>
+      </c>
+      <c r="D47" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>713d4f58-cc37-4d07-b4e3-abb7ba179f06</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>1742663272879</v>
+      </c>
+      <c r="D48" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>362022c1-a66e-4c9e-941b-1f089989674f</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>1742663277897</v>
+      </c>
+      <c r="D49" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="str">
+        <v>2025-03-22T17:18:49.336Z</v>
+      </c>
+      <c r="D50" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E50" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="str">
+        <v>2025-03-22T17:18:49.336Z</v>
+      </c>
+      <c r="D51" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E51" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
+      <c r="A52" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="str">
+        <v>2025-03-22T17:18:56.695Z</v>
+      </c>
+      <c r="D52" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E52" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="str">
+        <v>2025-03-22T17:18:56.695Z</v>
+      </c>
+      <c r="D53" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E53" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="A54" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="str">
+        <v>2025-03-22T17:19:30.433Z</v>
+      </c>
+      <c r="D54" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E54" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="str">
+        <v>2025-03-22T17:19:30.433Z</v>
+      </c>
+      <c r="D55" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E55" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="A56" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="str">
+        <v>2025-03-22T17:19:34.520Z</v>
+      </c>
+      <c r="D56" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E56" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="str">
+        <v>2025-03-22T17:19:34.520Z</v>
+      </c>
+      <c r="D57" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E57" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="A58" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58" t="str">
+        <v>2025-03-22T17:19:37.594Z</v>
+      </c>
+      <c r="D58" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E58" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="A59" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59" t="str">
+        <v>2025-03-22T17:19:39.586Z</v>
+      </c>
+      <c r="D59" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E59" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2025-03-22T17:19:40.094Z</v>
+      </c>
+      <c r="D60" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E60" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61" t="str">
+        <v>2025-03-22T17:19:37.594Z</v>
+      </c>
+      <c r="D61" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E61" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62" t="str">
+        <v>2025-03-22T17:19:39.586Z</v>
+      </c>
+      <c r="D62" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E62" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="A63" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
+      <c r="C63" t="str">
+        <v>2025-03-22T17:19:42.023Z</v>
+      </c>
+      <c r="D63" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E63" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64" t="str">
+        <v>2025-03-22T17:19:42.540Z</v>
+      </c>
+      <c r="D64" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E64" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65" t="str">
+        <v>2025-03-22T17:19:40.094Z</v>
+      </c>
+      <c r="D65" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E65" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B66">
+        <v>13</v>
+      </c>
+      <c r="C66" t="str">
+        <v>2025-03-22T17:19:43.070Z</v>
+      </c>
+      <c r="D66" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E66" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+      <c r="C67" t="str">
+        <v>2025-03-22T17:19:42.023Z</v>
+      </c>
+      <c r="D67" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E67" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B68">
+        <v>14</v>
+      </c>
+      <c r="C68" t="str">
+        <v>2025-03-22T17:19:44.657Z</v>
+      </c>
+      <c r="D68" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E68" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69" t="str">
+        <v>2025-03-22T17:19:42.540Z</v>
+      </c>
+      <c r="D69" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E69" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B70">
+        <v>15</v>
+      </c>
+      <c r="C70" t="str">
+        <v>2025-03-22T17:19:45.185Z</v>
+      </c>
+      <c r="D70" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E70" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B71">
+        <v>13</v>
+      </c>
+      <c r="C71" t="str">
+        <v>2025-03-22T17:19:43.070Z</v>
+      </c>
+      <c r="D71" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E71" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B72">
+        <v>16</v>
+      </c>
+      <c r="C72" t="str">
+        <v>2025-03-22T17:19:45.692Z</v>
+      </c>
+      <c r="D72" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E72" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B73">
+        <v>14</v>
+      </c>
+      <c r="C73" t="str">
+        <v>2025-03-22T17:19:44.657Z</v>
+      </c>
+      <c r="D73" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E73" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B74">
+        <v>19</v>
+      </c>
+      <c r="C74" t="str">
+        <v>2025-03-22T17:19:47.232Z</v>
+      </c>
+      <c r="D74" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E74" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B75">
+        <v>15</v>
+      </c>
+      <c r="C75" t="str">
+        <v>2025-03-22T17:19:45.185Z</v>
+      </c>
+      <c r="D75" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E75" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B76">
+        <v>20</v>
+      </c>
+      <c r="C76" t="str">
+        <v>2025-03-22T17:19:47.763Z</v>
+      </c>
+      <c r="D76" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E76" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="A77" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B77">
+        <v>21</v>
+      </c>
+      <c r="C77" t="str">
+        <v>2025-03-22T17:19:48.282Z</v>
+      </c>
+      <c r="D77" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E77" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B78">
+        <v>16</v>
+      </c>
+      <c r="C78" t="str">
+        <v>2025-03-22T17:19:45.692Z</v>
+      </c>
+      <c r="D78" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E78" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B79">
+        <v>19</v>
+      </c>
+      <c r="C79" t="str">
+        <v>2025-03-22T17:19:47.232Z</v>
+      </c>
+      <c r="D79" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E79" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
+      <c r="A80" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B80">
+        <v>24</v>
+      </c>
+      <c r="C80" t="str">
+        <v>2025-03-22T17:19:49.826Z</v>
+      </c>
+      <c r="D80" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E80" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81" t="str">
+        <v>2025-03-22T17:19:47.763Z</v>
+      </c>
+      <c r="D81" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E81" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
+      <c r="A82" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B82">
+        <v>25</v>
+      </c>
+      <c r="C82" t="str">
+        <v>2025-03-22T17:19:50.344Z</v>
+      </c>
+      <c r="D82" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E82" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B83">
+        <v>21</v>
+      </c>
+      <c r="C83" t="str">
+        <v>2025-03-22T17:19:48.282Z</v>
+      </c>
+      <c r="D83" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E83" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="84" xml:space="preserve">
+      <c r="A84" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B84">
+        <v>26</v>
+      </c>
+      <c r="C84" t="str">
+        <v>2025-03-22T17:19:50.854Z</v>
+      </c>
+      <c r="D84" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E84" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B85">
+        <v>24</v>
+      </c>
+      <c r="C85" t="str">
+        <v>2025-03-22T17:19:49.826Z</v>
+      </c>
+      <c r="D85" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E85" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B86">
+        <v>25</v>
+      </c>
+      <c r="C86" t="str">
+        <v>2025-03-22T17:19:50.344Z</v>
+      </c>
+      <c r="D86" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E86" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>fa849aa2-5cd5-49cf-b406-85c0180c63b0</v>
+      </c>
+      <c r="B87">
+        <v>26</v>
+      </c>
+      <c r="C87" t="str">
+        <v>2025-03-22T17:19:50.854Z</v>
+      </c>
+      <c r="D87" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E87" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="str">
+        <v>2025-03-22T17:20:52.443Z</v>
+      </c>
+      <c r="D88" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E88" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="str">
+        <v>2025-03-22T17:20:52.443Z</v>
+      </c>
+      <c r="D89" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E89" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" t="str">
+        <v>2025-03-22T17:20:55.238Z</v>
+      </c>
+      <c r="D90" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E90" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="str">
+        <v>2025-03-22T17:20:57.503Z</v>
+      </c>
+      <c r="D91" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E91" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" t="str">
+        <v>2025-03-22T17:20:55.238Z</v>
+      </c>
+      <c r="D92" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E92" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93" t="str">
+        <v>2025-03-22T17:20:58.039Z</v>
+      </c>
+      <c r="D93" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E93" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="str">
+        <v>2025-03-22T17:20:57.503Z</v>
+      </c>
+      <c r="D94" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E94" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" t="str">
+        <v>2025-03-22T17:20:58.039Z</v>
+      </c>
+      <c r="D95" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E95" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96" t="str">
+        <v>2025-03-22T17:21:00.257Z</v>
+      </c>
+      <c r="D96" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E96" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97" t="str">
+        <v>2025-03-22T17:21:00.788Z</v>
+      </c>
+      <c r="D97" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E97" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98" t="str">
+        <v>2025-03-22T17:21:02.571Z</v>
+      </c>
+      <c r="D98" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E98" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99" t="str">
+        <v>2025-03-22T17:21:00.257Z</v>
+      </c>
+      <c r="D99" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E99" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B100">
+        <v>6</v>
+      </c>
+      <c r="C100" t="str">
+        <v>2025-03-22T17:21:00.788Z</v>
+      </c>
+      <c r="D100" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E100" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101" t="str">
+        <v>2025-03-22T17:21:03.089Z</v>
+      </c>
+      <c r="D101" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E101" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102" t="str">
+        <v>2025-03-22T17:21:03.590Z</v>
+      </c>
+      <c r="D102" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E102" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="C103" t="str">
+        <v>2025-03-22T17:21:02.571Z</v>
+      </c>
+      <c r="D103" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E103" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104" t="str">
+        <v>2025-03-22T17:21:05.357Z</v>
+      </c>
+      <c r="D104" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E104" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B105">
+        <v>9</v>
+      </c>
+      <c r="C105" t="str">
+        <v>2025-03-22T17:21:03.089Z</v>
+      </c>
+      <c r="D105" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E105" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="C106" t="str">
+        <v>2025-03-22T17:21:03.590Z</v>
+      </c>
+      <c r="D106" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E106" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B107">
+        <v>13</v>
+      </c>
+      <c r="C107" t="str">
+        <v>2025-03-22T17:21:05.866Z</v>
+      </c>
+      <c r="D107" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E107" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B108">
+        <v>14</v>
+      </c>
+      <c r="C108" t="str">
+        <v>2025-03-22T17:21:06.395Z</v>
+      </c>
+      <c r="D108" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E108" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B109">
+        <v>12</v>
+      </c>
+      <c r="C109" t="str">
+        <v>2025-03-22T17:21:05.357Z</v>
+      </c>
+      <c r="D109" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E109" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B110">
+        <v>17</v>
+      </c>
+      <c r="C110" t="str">
+        <v>2025-03-22T17:21:07.926Z</v>
+      </c>
+      <c r="D110" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E110" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B111">
+        <v>13</v>
+      </c>
+      <c r="C111" t="str">
+        <v>2025-03-22T17:21:05.866Z</v>
+      </c>
+      <c r="D111" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E111" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B112">
+        <v>14</v>
+      </c>
+      <c r="C112" t="str">
+        <v>2025-03-22T17:21:06.395Z</v>
+      </c>
+      <c r="D112" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E112" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B113">
+        <v>18</v>
+      </c>
+      <c r="C113" t="str">
+        <v>2025-03-22T17:21:08.427Z</v>
+      </c>
+      <c r="D113" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E113" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B114">
+        <v>19</v>
+      </c>
+      <c r="C114" t="str">
+        <v>2025-03-22T17:21:08.950Z</v>
+      </c>
+      <c r="D114" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E114" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B115">
+        <v>20</v>
+      </c>
+      <c r="C115" t="str">
+        <v>2025-03-22T17:21:09.452Z</v>
+      </c>
+      <c r="D115" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E115" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B116">
+        <v>17</v>
+      </c>
+      <c r="C116" t="str">
+        <v>2025-03-22T17:21:07.926Z</v>
+      </c>
+      <c r="D116" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E116" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B117">
+        <v>18</v>
+      </c>
+      <c r="C117" t="str">
+        <v>2025-03-22T17:21:08.427Z</v>
+      </c>
+      <c r="D117" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E117" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B118">
+        <v>22</v>
+      </c>
+      <c r="C118" t="str">
+        <v>2025-03-22T17:21:10.496Z</v>
+      </c>
+      <c r="D118" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E118" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B119">
+        <v>19</v>
+      </c>
+      <c r="C119" t="str">
+        <v>2025-03-22T17:21:08.950Z</v>
+      </c>
+      <c r="D119" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E119" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B120">
+        <v>23</v>
+      </c>
+      <c r="C120" t="str">
+        <v>2025-03-22T17:21:11.013Z</v>
+      </c>
+      <c r="D120" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E120" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B121">
+        <v>20</v>
+      </c>
+      <c r="C121" t="str">
+        <v>2025-03-22T17:21:09.452Z</v>
+      </c>
+      <c r="D121" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E121" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B122">
+        <v>24</v>
+      </c>
+      <c r="C122" t="str">
+        <v>2025-03-22T17:21:11.516Z</v>
+      </c>
+      <c r="D122" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E122" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B123">
+        <v>25</v>
+      </c>
+      <c r="C123" t="str">
+        <v>2025-03-22T17:21:12.025Z</v>
+      </c>
+      <c r="D123" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E123" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B124">
+        <v>22</v>
+      </c>
+      <c r="C124" t="str">
+        <v>2025-03-22T17:21:10.496Z</v>
+      </c>
+      <c r="D124" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E124" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B125">
+        <v>26</v>
+      </c>
+      <c r="C125" t="str">
+        <v>2025-03-22T17:21:12.532Z</v>
+      </c>
+      <c r="D125" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E125" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B126">
+        <v>23</v>
+      </c>
+      <c r="C126" t="str">
+        <v>2025-03-22T17:21:11.013Z</v>
+      </c>
+      <c r="D126" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E126" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B127">
+        <v>27</v>
+      </c>
+      <c r="C127" t="str">
+        <v>2025-03-22T17:21:13.054Z</v>
+      </c>
+      <c r="D127" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E127" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B128">
+        <v>24</v>
+      </c>
+      <c r="C128" t="str">
+        <v>2025-03-22T17:21:11.516Z</v>
+      </c>
+      <c r="D128" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E128" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B129">
+        <v>28</v>
+      </c>
+      <c r="C129" t="str">
+        <v>2025-03-22T17:21:13.568Z</v>
+      </c>
+      <c r="D129" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E129" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B130">
+        <v>25</v>
+      </c>
+      <c r="C130" t="str">
+        <v>2025-03-22T17:21:12.025Z</v>
+      </c>
+      <c r="D130" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E130" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B131">
+        <v>29</v>
+      </c>
+      <c r="C131" t="str">
+        <v>2025-03-22T17:21:14.076Z</v>
+      </c>
+      <c r="D131" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E131" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B132">
+        <v>26</v>
+      </c>
+      <c r="C132" t="str">
+        <v>2025-03-22T17:21:12.532Z</v>
+      </c>
+      <c r="D132" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E132" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B133">
+        <v>27</v>
+      </c>
+      <c r="C133" t="str">
+        <v>2025-03-22T17:21:13.054Z</v>
+      </c>
+      <c r="D133" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E133" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B134">
+        <v>30</v>
+      </c>
+      <c r="C134" t="str">
+        <v>2025-03-22T17:21:14.589Z</v>
+      </c>
+      <c r="D134" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E134" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B135">
+        <v>28</v>
+      </c>
+      <c r="C135" t="str">
+        <v>2025-03-22T17:21:13.568Z</v>
+      </c>
+      <c r="D135" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E135" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B136">
+        <v>31</v>
+      </c>
+      <c r="C136" t="str">
+        <v>2025-03-22T17:21:15.106Z</v>
+      </c>
+      <c r="D136" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E136" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B137">
+        <v>32</v>
+      </c>
+      <c r="C137" t="str">
+        <v>2025-03-22T17:21:15.611Z</v>
+      </c>
+      <c r="D137" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E137" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B138">
+        <v>29</v>
+      </c>
+      <c r="C138" t="str">
+        <v>2025-03-22T17:21:14.076Z</v>
+      </c>
+      <c r="D138" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E138" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B139">
+        <v>33</v>
+      </c>
+      <c r="C139" t="str">
+        <v>2025-03-22T17:21:16.131Z</v>
+      </c>
+      <c r="D139" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E139" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B140">
+        <v>30</v>
+      </c>
+      <c r="C140" t="str">
+        <v>2025-03-22T17:21:14.589Z</v>
+      </c>
+      <c r="D140" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E140" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B141">
+        <v>34</v>
+      </c>
+      <c r="C141" t="str">
+        <v>2025-03-22T17:21:16.635Z</v>
+      </c>
+      <c r="D141" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E141" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B142">
+        <v>31</v>
+      </c>
+      <c r="C142" t="str">
+        <v>2025-03-22T17:21:15.106Z</v>
+      </c>
+      <c r="D142" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E142" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B143">
+        <v>35</v>
+      </c>
+      <c r="C143" t="str">
+        <v>2025-03-22T17:21:17.145Z</v>
+      </c>
+      <c r="D143" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E143" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B144">
+        <v>32</v>
+      </c>
+      <c r="C144" t="str">
+        <v>2025-03-22T17:21:15.611Z</v>
+      </c>
+      <c r="D144" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E144" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B145">
+        <v>33</v>
+      </c>
+      <c r="C145" t="str">
+        <v>2025-03-22T17:21:16.131Z</v>
+      </c>
+      <c r="D145" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E145" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B146">
+        <v>36</v>
+      </c>
+      <c r="C146" t="str">
+        <v>2025-03-22T17:21:17.664Z</v>
+      </c>
+      <c r="D146" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E146" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B147">
+        <v>34</v>
+      </c>
+      <c r="C147" t="str">
+        <v>2025-03-22T17:21:16.635Z</v>
+      </c>
+      <c r="D147" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E147" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B148">
+        <v>37</v>
+      </c>
+      <c r="C148" t="str">
+        <v>2025-03-22T17:21:18.194Z</v>
+      </c>
+      <c r="D148" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E148" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B149">
+        <v>35</v>
+      </c>
+      <c r="C149" t="str">
+        <v>2025-03-22T17:21:17.145Z</v>
+      </c>
+      <c r="D149" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E149" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B150">
+        <v>38</v>
+      </c>
+      <c r="C150" t="str">
+        <v>2025-03-22T17:21:18.709Z</v>
+      </c>
+      <c r="D150" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E150" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B151">
+        <v>36</v>
+      </c>
+      <c r="C151" t="str">
+        <v>2025-03-22T17:21:17.664Z</v>
+      </c>
+      <c r="D151" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E151" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B152">
+        <v>39</v>
+      </c>
+      <c r="C152" t="str">
+        <v>2025-03-22T17:21:19.240Z</v>
+      </c>
+      <c r="D152" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E152" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B153">
+        <v>37</v>
+      </c>
+      <c r="C153" t="str">
+        <v>2025-03-22T17:21:18.194Z</v>
+      </c>
+      <c r="D153" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E153" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B154">
+        <v>40</v>
+      </c>
+      <c r="C154" t="str">
+        <v>2025-03-22T17:21:19.747Z</v>
+      </c>
+      <c r="D154" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E154" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B155">
+        <v>41</v>
+      </c>
+      <c r="C155" t="str">
+        <v>2025-03-22T17:21:20.260Z</v>
+      </c>
+      <c r="D155" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E155" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B156">
+        <v>38</v>
+      </c>
+      <c r="C156" t="str">
+        <v>2025-03-22T17:21:18.709Z</v>
+      </c>
+      <c r="D156" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E156" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B157">
+        <v>42</v>
+      </c>
+      <c r="C157" t="str">
+        <v>2025-03-22T17:21:20.790Z</v>
+      </c>
+      <c r="D157" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E157" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B158">
+        <v>39</v>
+      </c>
+      <c r="C158" t="str">
+        <v>2025-03-22T17:21:19.240Z</v>
+      </c>
+      <c r="D158" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E158" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B159">
+        <v>43</v>
+      </c>
+      <c r="C159" t="str">
+        <v>2025-03-22T17:21:21.314Z</v>
+      </c>
+      <c r="D159" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E159" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B160">
+        <v>40</v>
+      </c>
+      <c r="C160" t="str">
+        <v>2025-03-22T17:21:19.747Z</v>
+      </c>
+      <c r="D160" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E160" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B161">
+        <v>44</v>
+      </c>
+      <c r="C161" t="str">
+        <v>2025-03-22T17:21:21.844Z</v>
+      </c>
+      <c r="D161" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E161" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B162">
+        <v>41</v>
+      </c>
+      <c r="C162" t="str">
+        <v>2025-03-22T17:21:20.260Z</v>
+      </c>
+      <c r="D162" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E162" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B163">
+        <v>45</v>
+      </c>
+      <c r="C163" t="str">
+        <v>2025-03-22T17:21:22.364Z</v>
+      </c>
+      <c r="D163" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E163" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B164">
+        <v>42</v>
+      </c>
+      <c r="C164" t="str">
+        <v>2025-03-22T17:21:20.790Z</v>
+      </c>
+      <c r="D164" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E164" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B165">
+        <v>46</v>
+      </c>
+      <c r="C165" t="str">
+        <v>2025-03-22T17:21:22.885Z</v>
+      </c>
+      <c r="D165" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E165" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B166">
+        <v>43</v>
+      </c>
+      <c r="C166" t="str">
+        <v>2025-03-22T17:21:21.314Z</v>
+      </c>
+      <c r="D166" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E166" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B167">
+        <v>47</v>
+      </c>
+      <c r="C167" t="str">
+        <v>2025-03-22T17:21:23.388Z</v>
+      </c>
+      <c r="D167" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E167" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B168">
+        <v>48</v>
+      </c>
+      <c r="C168" t="str">
+        <v>2025-03-22T17:21:23.918Z</v>
+      </c>
+      <c r="D168" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E168" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B169">
+        <v>44</v>
+      </c>
+      <c r="C169" t="str">
+        <v>2025-03-22T17:21:21.844Z</v>
+      </c>
+      <c r="D169" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E169" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B170">
+        <v>45</v>
+      </c>
+      <c r="C170" t="str">
+        <v>2025-03-22T17:21:22.364Z</v>
+      </c>
+      <c r="D170" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E170" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B171">
+        <v>46</v>
+      </c>
+      <c r="C171" t="str">
+        <v>2025-03-22T17:21:22.885Z</v>
+      </c>
+      <c r="D171" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E171" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B172">
+        <v>47</v>
+      </c>
+      <c r="C172" t="str">
+        <v>2025-03-22T17:21:23.388Z</v>
+      </c>
+      <c r="D172" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E172" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>fd9689e3-55a1-4c84-84d1-d9afcb03f835</v>
+      </c>
+      <c r="B173">
+        <v>48</v>
+      </c>
+      <c r="C173" t="str">
+        <v>2025-03-22T17:21:23.918Z</v>
+      </c>
+      <c r="D173" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E173" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173" t="str">
+        <v>Error: Recognition timeout</v>
+      </c>
+    </row>
+    <row r="174" xml:space="preserve">
+      <c r="A174" t="str">
+        <v>38da5a22-0cef-41c3-a498-b1a916c5be94</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" t="str">
+        <v>2025-03-22T17:26:40.635Z</v>
+      </c>
+      <c r="D174" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E174" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="175" xml:space="preserve">
+      <c r="A175" t="str">
+        <v>38da5a22-0cef-41c3-a498-b1a916c5be94</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175" t="str">
+        <v>2025-03-22T17:26:43.346Z</v>
+      </c>
+      <c r="D175" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E175" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="176" xml:space="preserve">
+      <c r="A176" t="str">
+        <v>38da5a22-0cef-41c3-a498-b1a916c5be94</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176" t="str">
+        <v>2025-03-22T17:26:45.773Z</v>
+      </c>
+      <c r="D176" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E176" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="177" xml:space="preserve">
+      <c r="A177" t="str">
+        <v>38da5a22-0cef-41c3-a498-b1a916c5be94</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177" t="str">
+        <v>2025-03-22T17:26:48.202Z</v>
+      </c>
+      <c r="D177" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E177" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177" t="str" xml:space="preserve">
+        <v xml:space="preserve">Error: Python process error (1): Traceback (most recent call last):
+  File "/app/detector.py", line 12, in &lt;module&gt;
+    import cv2
+ModuleNotFoundError: No module named 'cv2'
+</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>d2c092a9-731f-45dd-bc39-ce447d517494</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178" t="str">
+        <v>2025-03-22T17:29:25.329Z</v>
+      </c>
+      <c r="D178" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E178" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>d2c092a9-731f-45dd-bc39-ce447d517494</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179" t="str">
+        <v>2025-03-22T17:29:32.140Z</v>
+      </c>
+      <c r="D179" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E179" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>d2c092a9-731f-45dd-bc39-ce447d517494</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180" t="str">
+        <v>2025-03-22T17:29:34.584Z</v>
+      </c>
+      <c r="D180" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E180" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>d2c092a9-731f-45dd-bc39-ce447d517494</v>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+      <c r="C181" t="str">
+        <v>2025-03-22T17:29:37.213Z</v>
+      </c>
+      <c r="D181" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E181" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>d2c092a9-731f-45dd-bc39-ce447d517494</v>
+      </c>
+      <c r="B182">
+        <v>5</v>
+      </c>
+      <c r="C182" t="str">
+        <v>2025-03-22T17:29:39.679Z</v>
+      </c>
+      <c r="D182" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E182" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>d2c092a9-731f-45dd-bc39-ce447d517494</v>
+      </c>
+      <c r="B183">
+        <v>6</v>
+      </c>
+      <c r="C183" t="str">
+        <v>2025-03-22T17:29:42.179Z</v>
+      </c>
+      <c r="D183" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E183" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>d2c092a9-731f-45dd-bc39-ce447d517494</v>
+      </c>
+      <c r="B184">
+        <v>7</v>
+      </c>
+      <c r="C184" t="str">
+        <v>2025-03-22T17:29:44.681Z</v>
+      </c>
+      <c r="D184" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E184" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>d2c092a9-731f-45dd-bc39-ce447d517494</v>
+      </c>
+      <c r="B185">
+        <v>8</v>
+      </c>
+      <c r="C185" t="str">
+        <v>2025-03-22T17:29:47.228Z</v>
+      </c>
+      <c r="D185" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E185" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>d2c092a9-731f-45dd-bc39-ce447d517494</v>
+      </c>
+      <c r="B186">
+        <v>9</v>
+      </c>
+      <c r="C186" t="str">
+        <v>2025-03-22T17:29:50.782Z</v>
+      </c>
+      <c r="D186" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E186" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>d2c092a9-731f-45dd-bc39-ce447d517494</v>
+      </c>
+      <c r="B187">
+        <v>10</v>
+      </c>
+      <c r="C187" t="str">
+        <v>2025-03-22T17:29:53.362Z</v>
+      </c>
+      <c r="D187" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E187" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>d2c092a9-731f-45dd-bc39-ce447d517494</v>
+      </c>
+      <c r="B188">
+        <v>11</v>
+      </c>
+      <c r="C188" t="str">
+        <v>2025-03-22T17:29:55.894Z</v>
+      </c>
+      <c r="D188" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E188" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>d2c092a9-731f-45dd-bc39-ce447d517494</v>
+      </c>
+      <c r="B189">
+        <v>12</v>
+      </c>
+      <c r="C189" t="str">
+        <v>2025-03-22T17:29:58.430Z</v>
+      </c>
+      <c r="D189" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E189" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>d2c092a9-731f-45dd-bc39-ce447d517494</v>
+      </c>
+      <c r="B190">
+        <v>13</v>
+      </c>
+      <c r="C190" t="str">
+        <v>2025-03-22T17:30:00.942Z</v>
+      </c>
+      <c r="D190" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E190" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G190"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -425,9 +425,1672 @@
         <v>Status</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>1ed46dac-fca1-4ab8-a93c-202e7991cd4c</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2025-04-04T20:00:08.609Z</v>
+      </c>
+      <c r="D2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>171079ad-0a7f-40e3-b6b8-b27181543b28</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2025-04-05T07:41:09.799Z</v>
+      </c>
+      <c r="D3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>90a19e56-31f2-4a52-8b34-64af29056492</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2025-04-05T07:41:24.816Z</v>
+      </c>
+      <c r="D4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>a09d8848-732a-4f6a-a4bd-f36750b86cc6</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-04-05T07:41:39.852Z</v>
+      </c>
+      <c r="D5" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E5" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>fc695d4c-d409-4a9d-a2fc-1a0ea2227bcf</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2025-04-05T07:41:54.881Z</v>
+      </c>
+      <c r="D6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>dfe0577e-f9e1-4f82-b91f-c4b6b01435b0</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2025-04-05T07:42:09.911Z</v>
+      </c>
+      <c r="D7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>54ea5af0-7c25-451c-9e8e-1969eda23b15</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2025-04-05T07:42:24.934Z</v>
+      </c>
+      <c r="D8" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E8" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>c40327bc-ec49-4b16-a34b-82159e43ee32</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2025-04-05T07:42:39.955Z</v>
+      </c>
+      <c r="D9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>6bdb5341-fbcc-4e2a-8270-e55b1020a5e8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2025-04-05T07:42:54.995Z</v>
+      </c>
+      <c r="D10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>3adfd233-d79d-4923-8840-4cd5dd7d13a9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2025-04-05T07:43:10.024Z</v>
+      </c>
+      <c r="D11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>8ecf24b8-965f-4ee8-b4e3-02d846ea0d2e</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2025-04-05T07:43:25.059Z</v>
+      </c>
+      <c r="D12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>d797a132-275b-442d-a7b2-d2a60dad8475</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2025-04-05T07:43:40.094Z</v>
+      </c>
+      <c r="D13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>3e6b780a-fbc4-4fad-b889-d3c187f84d48</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2025-04-05T07:43:55.109Z</v>
+      </c>
+      <c r="D14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2f01e03c-1635-435a-b868-15eb66312ae2</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2025-04-05T07:44:10.138Z</v>
+      </c>
+      <c r="D15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E15" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>4fe8d035-dbf3-413d-a5c7-caa468522235</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2025-04-05T07:44:54.089Z</v>
+      </c>
+      <c r="D16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>eef59baa-ea90-421a-b98c-4e7957eb8274</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2025-04-05T07:45:09.121Z</v>
+      </c>
+      <c r="D17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>e8fcd3da-dde1-4c1d-a3f9-57581c2ac8dd</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="str">
+        <v>2025-04-05T07:51:21.864Z</v>
+      </c>
+      <c r="D18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>468a5189-d1e1-440e-a906-e32423d311a1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2025-04-05T07:51:36.901Z</v>
+      </c>
+      <c r="D19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>5e9e2614-55c7-4f7b-a5bf-2a82b95b67fa</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2025-04-05T07:51:51.919Z</v>
+      </c>
+      <c r="D20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>7b28cc20-ffc2-4895-b53f-64c956dd3166</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2025-04-05T07:52:06.937Z</v>
+      </c>
+      <c r="D21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E21" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>6a2f7641-8bf6-4e54-b36c-eff549ff83c1</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2025-04-05T07:52:21.975Z</v>
+      </c>
+      <c r="D22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>22341c16-d43e-4fef-b589-0b9356a63569</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2025-04-05T07:52:37.002Z</v>
+      </c>
+      <c r="D23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E23" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>38ee6acd-ffbc-4451-944d-e613f29656ce</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" t="str">
+        <v>2025-04-05T07:52:52.038Z</v>
+      </c>
+      <c r="D24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>7d524c5f-bce1-48ca-8955-cafffbb1c56b</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2025-04-05T07:53:36.933Z</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Error: Unsupported image type, must be 8bit gray or RGB image.</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>584f29cd-b460-46db-88ff-e1a224040aee</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="str">
+        <v>2025-04-05T07:56:11.673Z</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Error: Unsupported image type, must be 8bit gray or RGB image.</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>832e90f2-2af3-440d-b116-2069daf41a89</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="str">
+        <v>2025-04-05T07:56:26.710Z</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Error: Unsupported image type, must be 8bit gray or RGB image.</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>315be29d-3a26-4776-8862-9007b2dad4db</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="str">
+        <v>2025-04-05T07:56:41.731Z</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Error: Unsupported image type, must be 8bit gray or RGB image.</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>bb4fca8f-f4f9-499e-b742-580461f6ab9c</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="str">
+        <v>2025-04-05T07:56:56.755Z</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Error: Unsupported image type, must be 8bit gray or RGB image.</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>253a451a-85f9-42fb-9cc3-19ddae618417</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="str">
+        <v>2025-04-05T07:57:11.783Z</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Error: Unsupported image type, must be 8bit gray or RGB image.</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>bf7692ff-d189-4b32-8564-419d8a91c834</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="str">
+        <v>2025-04-05T07:57:26.821Z</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Error: Unsupported image type, must be 8bit gray or RGB image.</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>b2fc5040-972b-4738-8187-d77d07ee308c</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="str">
+        <v>2025-04-05T07:58:44.181Z</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>a3515442-c7b8-428f-b017-1dd2bd04fc27</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2025-04-05T07:58:59.215Z</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>aee63d36-321d-4857-8476-cbfb50e0c723</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="str">
+        <v>2025-04-05T07:59:14.241Z</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>19cf3e1f-4b47-4f3d-a8a6-a5ce970ea595</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2025-04-05T08:01:13.898Z</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>c74ea162-d80e-4a17-af65-3fbacdfbe676</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="str">
+        <v>2025-04-05T08:01:28.923Z</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>246fd5fb-b647-46ed-9b57-5a9e97c6b323</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="str">
+        <v>2025-04-05T08:01:43.945Z</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>a9833acd-b674-4614-b59b-09b9c16daa57</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="str">
+        <v>2025-04-05T08:03:18.368Z</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2642e64d-2ee4-4c0e-97eb-8df684510450</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="str">
+        <v>2025-04-05T08:04:14.992Z</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>e2e5d26d-c481-48fa-8c63-57ae4d0164ee</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="str">
+        <v>2025-04-05T08:04:30.029Z</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>249f457c-c8e1-4e00-a282-f80225ac74a7</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="str">
+        <v>2025-04-05T08:04:45.057Z</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>7fd71ff9-ee87-4118-97da-a5adc5349ca1</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="str">
+        <v>2025-04-05T08:05:30.719Z</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>45068c15-93e7-4878-9f5e-5cdfbae67618</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="str">
+        <v>2025-04-05T08:07:17.820Z</v>
+      </c>
+      <c r="D43" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E43" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>0ada75f5-0edf-4621-adb3-e1d6bfa42a16</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="str">
+        <v>2025-04-05T08:07:32.844Z</v>
+      </c>
+      <c r="D44" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E44" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>5b285d16-1da6-4749-8810-b0e48c4d9cef</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="str">
+        <v>2025-04-05T08:07:47.865Z</v>
+      </c>
+      <c r="D45" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E45" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>51b0fad4-8169-4f5e-9faf-61e43349c1ef</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="str">
+        <v>2025-04-05T08:08:02.891Z</v>
+      </c>
+      <c r="D46" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E46" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>841355c8-9c79-4018-b850-4ce1726e8bdd</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" t="str">
+        <v>2025-04-05T08:08:17.917Z</v>
+      </c>
+      <c r="D47" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E47" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>1c5177d0-ea2e-4e54-b3f5-d96df46e3005</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48" t="str">
+        <v>2025-04-05T08:08:32.950Z</v>
+      </c>
+      <c r="D48" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E48" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>64f921f5-6e60-4cc2-b30f-4a0649d7fcfe</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
+        <v>2025-04-05T08:09:10.793Z</v>
+      </c>
+      <c r="D49" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E49" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>3f1417ad-418b-4b12-b494-550bea164dd5</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="str">
+        <v>2025-04-05T08:09:25.803Z</v>
+      </c>
+      <c r="D50" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E50" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Error: Failed to parse result: Unexpected token { in JSON at position 113</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>2050a7ee-ef43-456a-8e28-f99af0035f9c</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="str">
+        <v>2025-04-05T08:09:40.823Z</v>
+      </c>
+      <c r="D51" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E51" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>3a3ccc2c-78ba-44d2-980f-9b9468643bad</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="str">
+        <v>2025-04-05T08:10:20.813Z</v>
+      </c>
+      <c r="D52" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E52" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>cee8138f-5237-4a3c-83f4-31e1cc7955a8</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="str">
+        <v>2025-04-05T08:10:35.822Z</v>
+      </c>
+      <c r="D53" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E53" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>2cfe73d5-5d5c-4d08-bf68-fb34f61ef0ee</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="str">
+        <v>2025-04-05T08:10:50.833Z</v>
+      </c>
+      <c r="D54" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E54" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>6f9219ee-f092-400f-b194-408daf5a431f</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="str">
+        <v>2025-04-05T08:11:05.866Z</v>
+      </c>
+      <c r="D55" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E55" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>69307e29-4ccb-42ef-80ce-fcdb42b97562</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56" t="str">
+        <v>2025-04-05T08:11:20.904Z</v>
+      </c>
+      <c r="D56" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E56" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>fad759e5-0ed0-44e2-9b40-0330e6bab1c7</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57" t="str">
+        <v>2025-04-05T08:11:35.939Z</v>
+      </c>
+      <c r="D57" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E57" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>27a7fd52-3d00-4592-b513-7e93cf0cf125</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58" t="str">
+        <v>2025-04-05T08:11:50.961Z</v>
+      </c>
+      <c r="D58" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E58" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>25298704-b95e-4b88-a1ea-732bf1c0336d</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59" t="str">
+        <v>2025-04-05T08:12:05.991Z</v>
+      </c>
+      <c r="D59" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E59" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>595ad9e0-b909-4906-a708-d8176eb89c8c</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2025-04-05T08:12:21.028Z</v>
+      </c>
+      <c r="D60" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E60" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>4b4df113-9536-466d-bed6-e10c1cac1ccf</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61" t="str">
+        <v>2025-04-05T08:12:36.048Z</v>
+      </c>
+      <c r="D61" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E61" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>116d385c-5b72-4515-b7ef-4ca64548501f</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62" t="str">
+        <v>2025-04-05T08:12:51.058Z</v>
+      </c>
+      <c r="D62" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E62" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>40c5044f-ed94-4576-9d51-12cd8445ea4b</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63" t="str">
+        <v>2025-04-05T08:13:06.081Z</v>
+      </c>
+      <c r="D63" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E63" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>b08120be-64b4-4a0d-a5eb-fa8168be2888</v>
+      </c>
+      <c r="B64">
+        <v>13</v>
+      </c>
+      <c r="C64" t="str">
+        <v>2025-04-05T08:13:21.107Z</v>
+      </c>
+      <c r="D64" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E64" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>652e0e0b-4988-43ec-a8c7-298d41667495</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="str">
+        <v>2025-04-05T08:14:09.685Z</v>
+      </c>
+      <c r="D65" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E65" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>85735a01-8cb2-4995-8e9e-3cecdc9a409c</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="str">
+        <v>2025-04-05T08:14:24.700Z</v>
+      </c>
+      <c r="D66" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E66" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>01fb0289-912b-4371-b462-f5d80302708e</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="str">
+        <v>2025-04-05T08:14:39.713Z</v>
+      </c>
+      <c r="D67" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E67" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>30406ee2-8729-4727-8e00-90b3f4edd6d5</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" t="str">
+        <v>2025-04-05T08:14:54.745Z</v>
+      </c>
+      <c r="D68" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E68" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>b6d2af4f-8f63-402f-a22f-5f98917dcc3c</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" t="str">
+        <v>2025-04-05T08:15:09.771Z</v>
+      </c>
+      <c r="D69" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E69" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>0e1c9cb7-c133-4d72-9d93-c661f13bf6b4</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70" t="str">
+        <v>2025-04-05T08:15:24.797Z</v>
+      </c>
+      <c r="D70" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E70" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>4501efad-bf0c-4ec2-bfd6-5e3c869000cb</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="str">
+        <v>2025-04-05T08:16:07.738Z</v>
+      </c>
+      <c r="D71" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E71" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>a9fa51e3-d84c-43e0-a970-7487f564bd00</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="str">
+        <v>2025-04-05T08:16:22.756Z</v>
+      </c>
+      <c r="D72" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E72" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>1d43ddcc-4061-4aac-8d6b-76ad37d49f05</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="str">
+        <v>2025-04-05T08:16:37.776Z</v>
+      </c>
+      <c r="D73" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E73" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>c539f808-154f-4961-b7bb-8e528e884b90</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74" t="str">
+        <v>2025-04-05T08:16:52.793Z</v>
+      </c>
+      <c r="D74" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E74" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>c9d7a40c-9b8e-4c17-9ff2-803ebfdcc46e</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75" t="str">
+        <v>2025-04-05T08:17:07.801Z</v>
+      </c>
+      <c r="D75" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E75" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>51075f3e-69af-4949-8cf3-1aed3a7c3c80</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76" t="str">
+        <v>2025-04-05T08:17:22.817Z</v>
+      </c>
+      <c r="D76" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E76" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>6f5e41e4-eb4f-4a75-bc9d-3f2c6f036a93</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" t="str">
+        <v>2025-04-05T08:17:37.843Z</v>
+      </c>
+      <c r="D77" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E77" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>bcc669c8-37dc-4a59-80ed-00efcd28e7df</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78" t="str">
+        <v>2025-04-05T08:17:52.865Z</v>
+      </c>
+      <c r="D78" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E78" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G78"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2088,9 +2088,446 @@
         <v>No Match</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>eb132417-394d-4e0d-89dd-7c04f071d198</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="str">
+        <v>2025-04-05T08:19:33.098Z</v>
+      </c>
+      <c r="D79" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E79" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>2c7e8bd3-b78f-4418-8f20-4f8e626a3d42</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="str">
+        <v>2025-04-05T08:19:48.106Z</v>
+      </c>
+      <c r="D80" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E80" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>78bab6cf-4a71-481b-811f-4738acfcc2d1</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="str">
+        <v>2025-04-05T08:20:03.132Z</v>
+      </c>
+      <c r="D81" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E81" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>e91ffc98-68bd-4c2d-b854-71afb88bffde</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82" t="str">
+        <v>2025-04-05T08:20:18.157Z</v>
+      </c>
+      <c r="D82" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E82" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>4c21dcc4-d325-4010-b787-96729c009cb4</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83" t="str">
+        <v>2025-04-05T08:20:33.178Z</v>
+      </c>
+      <c r="D83" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E83" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>a5c1e892-2da5-4390-8483-1c4c0d785566</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84" t="str">
+        <v>2025-04-05T08:20:48.195Z</v>
+      </c>
+      <c r="D84" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E84" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>c5fa5f5f-e3c0-4348-993e-65103fa2b20a</v>
+      </c>
+      <c r="B85">
+        <v>16</v>
+      </c>
+      <c r="C85" t="str">
+        <v>2025-04-05T08:22:20.894Z</v>
+      </c>
+      <c r="D85" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E85" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>d5eb8526-af29-44b6-a207-9aa42e0add1d</v>
+      </c>
+      <c r="B86">
+        <v>94</v>
+      </c>
+      <c r="C86" t="str">
+        <v>2025-04-05T08:22:23.505Z</v>
+      </c>
+      <c r="D86" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E86" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>7d71c1d6-d166-49d6-971b-71408f6e003d</v>
+      </c>
+      <c r="B87">
+        <v>180</v>
+      </c>
+      <c r="C87" t="str">
+        <v>2025-04-05T08:22:26.352Z</v>
+      </c>
+      <c r="D87" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E87" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>0ccf36cd-56c7-4a0a-ae28-be9528605d5c</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88" t="str">
+        <v>2025-04-05T08:23:23.727Z</v>
+      </c>
+      <c r="D88" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E88" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>f9ed5f59-f42c-4fde-b778-41b62dcc4a9a</v>
+      </c>
+      <c r="B89">
+        <v>25</v>
+      </c>
+      <c r="C89" t="str">
+        <v>2025-04-05T08:23:26.274Z</v>
+      </c>
+      <c r="D89" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E89" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>786d8ed0-e10d-46ac-a7bc-69ba47446823</v>
+      </c>
+      <c r="B90">
+        <v>45</v>
+      </c>
+      <c r="C90" t="str">
+        <v>2025-04-05T08:23:28.743Z</v>
+      </c>
+      <c r="D90" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E90" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>63c59fcb-c588-49e4-bc8c-dec348e6ea7a</v>
+      </c>
+      <c r="B91">
+        <v>65</v>
+      </c>
+      <c r="C91" t="str">
+        <v>2025-04-05T08:23:31.162Z</v>
+      </c>
+      <c r="D91" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E91" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>8bea9991-ae4b-428d-b350-1d20eb791a43</v>
+      </c>
+      <c r="B92">
+        <v>85</v>
+      </c>
+      <c r="C92" t="str">
+        <v>2025-04-05T08:23:33.567Z</v>
+      </c>
+      <c r="D92" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E92" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>efa97fa0-6918-4e75-83c9-eb581f781aac</v>
+      </c>
+      <c r="B93">
+        <v>106</v>
+      </c>
+      <c r="C93" t="str">
+        <v>2025-04-05T08:23:36.140Z</v>
+      </c>
+      <c r="D93" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E93" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>c7860ea0-6073-4805-aab9-63aa0aaa8fd1</v>
+      </c>
+      <c r="B94">
+        <v>126</v>
+      </c>
+      <c r="C94" t="str">
+        <v>2025-04-05T08:23:38.485Z</v>
+      </c>
+      <c r="D94" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E94" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>79b370c8-64ba-4ac6-a1b3-30205e96b04a</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="str">
+        <v>2025-04-05T08:24:08.467Z</v>
+      </c>
+      <c r="D95" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E95" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>cc3b7205-c6f6-4014-8687-5ba4a13a0f7a</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" t="str">
+        <v>2025-04-05T08:24:23.480Z</v>
+      </c>
+      <c r="D96" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E96" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>a9d57756-bb74-447e-b795-c72e6a6d9da9</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" t="str">
+        <v>2025-04-05T08:24:38.492Z</v>
+      </c>
+      <c r="D97" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E97" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G78"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G97"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2525,9 +2525,262 @@
         <v>No Match</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>a53a111d-7b06-41ba-b0c9-3e6e225158d3</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="str">
+        <v>2025-04-05T08:26:35.961Z</v>
+      </c>
+      <c r="D98" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E98" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>a6b27d37-3364-42f3-b567-b024bf3729f8</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" t="str">
+        <v>2025-04-05T08:26:40.971Z</v>
+      </c>
+      <c r="D99" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E99" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>89be264b-0a9b-4edf-95ae-cc7b230a4511</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="str">
+        <v>2025-04-05T08:26:45.993Z</v>
+      </c>
+      <c r="D100" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E100" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>223e2502-545c-4688-a037-6876d598c14d</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" t="str">
+        <v>2025-04-05T08:26:51.000Z</v>
+      </c>
+      <c r="D101" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E101" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>19e7676f-a541-4395-8f9e-de8284c827c3</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102" t="str">
+        <v>2025-04-05T08:26:56.029Z</v>
+      </c>
+      <c r="D102" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E102" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>5079d67e-cb72-4166-915f-524ffad6fb5a</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103" t="str">
+        <v>2025-04-05T08:27:01.054Z</v>
+      </c>
+      <c r="D103" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E103" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>32de074c-ca08-49a2-8496-b30c27178076</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104" t="str">
+        <v>2025-04-05T08:27:06.074Z</v>
+      </c>
+      <c r="D104" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E104" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>0741468a-718a-4cb2-920a-ff2d96536200</v>
+      </c>
+      <c r="B105">
+        <v>8</v>
+      </c>
+      <c r="C105" t="str">
+        <v>2025-04-05T08:27:11.085Z</v>
+      </c>
+      <c r="D105" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E105" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>37b328d4-7da3-4265-ab93-f5c034562992</v>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106" t="str">
+        <v>2025-04-05T08:27:16.097Z</v>
+      </c>
+      <c r="D106" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E106" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>1c127af0-f75c-4de5-b7bf-d0472bc64a18</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="C107" t="str">
+        <v>2025-04-05T08:27:21.107Z</v>
+      </c>
+      <c r="D107" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E107" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>93317e13-6473-4678-ad60-7a01b5c78425</v>
+      </c>
+      <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="C108" t="str">
+        <v>2025-04-05T08:27:26.117Z</v>
+      </c>
+      <c r="D108" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E108" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G97"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G108"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2778,9 +2778,469 @@
         <v>No Match</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>cec43862-f2bd-4660-ab39-e2cfe98b0216</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="str">
+        <v>2025-04-05T12:38:46.817Z</v>
+      </c>
+      <c r="D109" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E109" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>3fe5c124-72c6-4c39-bbe4-fc1f814e3bd9</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110" t="str">
+        <v>2025-04-05T12:38:51.850Z</v>
+      </c>
+      <c r="D110" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E110" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>5e3e9d58-6a22-4369-a44c-78a1ddafd1ac</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111" t="str">
+        <v>2025-04-05T12:38:56.875Z</v>
+      </c>
+      <c r="D111" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E111" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>fe7e489b-6cd6-4962-837b-48dbb23ccdac</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112" t="str">
+        <v>2025-04-05T12:39:01.904Z</v>
+      </c>
+      <c r="D112" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E112" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>bc081882-0185-4191-82e0-66581679f710</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113" t="str">
+        <v>2025-04-05T12:39:06.939Z</v>
+      </c>
+      <c r="D113" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E113" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>ba0787bf-12b8-47d1-97aa-080b3bce1cd9</v>
+      </c>
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114" t="str">
+        <v>2025-04-05T12:39:11.973Z</v>
+      </c>
+      <c r="D114" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E114" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>13b4a2f9-ab62-4b63-b744-b213138fd6c6</v>
+      </c>
+      <c r="B115">
+        <v>7</v>
+      </c>
+      <c r="C115" t="str">
+        <v>2025-04-05T12:39:17.015Z</v>
+      </c>
+      <c r="D115" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E115" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>132fcab8-b95a-45b0-b6f5-5d92eda738bf</v>
+      </c>
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116" t="str">
+        <v>2025-04-05T12:39:22.050Z</v>
+      </c>
+      <c r="D116" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E116" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>41d1d704-6c5d-42ed-9b18-d466a003e353</v>
+      </c>
+      <c r="B117">
+        <v>9</v>
+      </c>
+      <c r="C117" t="str">
+        <v>2025-04-05T12:39:27.087Z</v>
+      </c>
+      <c r="D117" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E117" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>1ed1b032-a0d2-4551-a763-49764e5ec6a6</v>
+      </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118" t="str">
+        <v>2025-04-05T12:39:32.117Z</v>
+      </c>
+      <c r="D118" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E118" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>11c70080-e4b6-47a8-84af-ccf1515b6b05</v>
+      </c>
+      <c r="B119">
+        <v>11</v>
+      </c>
+      <c r="C119" t="str">
+        <v>2025-04-05T12:39:37.159Z</v>
+      </c>
+      <c r="D119" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E119" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>2c709d8d-b2ce-491b-ae76-5cd22509828f</v>
+      </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120" t="str">
+        <v>2025-04-05T12:39:42.203Z</v>
+      </c>
+      <c r="D120" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E120" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>de70c256-bd1f-4c29-8235-28f0beb66ea0</v>
+      </c>
+      <c r="B121">
+        <v>13</v>
+      </c>
+      <c r="C121" t="str">
+        <v>2025-04-05T12:39:47.237Z</v>
+      </c>
+      <c r="D121" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E121" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>f5dc1304-e664-4d85-9bad-e43e022df265</v>
+      </c>
+      <c r="B122">
+        <v>14</v>
+      </c>
+      <c r="C122" t="str">
+        <v>2025-04-05T12:39:52.249Z</v>
+      </c>
+      <c r="D122" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E122" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>66a7c941-8db6-486e-b3aa-2a7c7566f064</v>
+      </c>
+      <c r="B123">
+        <v>15</v>
+      </c>
+      <c r="C123" t="str">
+        <v>2025-04-05T12:39:57.270Z</v>
+      </c>
+      <c r="D123" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E123" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>7c27d41e-2928-4497-b695-13096ab069c8</v>
+      </c>
+      <c r="B124">
+        <v>16</v>
+      </c>
+      <c r="C124" t="str">
+        <v>2025-04-05T12:40:02.299Z</v>
+      </c>
+      <c r="D124" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E124" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>b672092a-8276-4ddb-9338-3d78b1984cbf</v>
+      </c>
+      <c r="B125">
+        <v>17</v>
+      </c>
+      <c r="C125" t="str">
+        <v>2025-04-05T12:40:07.323Z</v>
+      </c>
+      <c r="D125" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E125" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>c5325977-8c42-4140-b00b-ada6fbec3d88</v>
+      </c>
+      <c r="B126">
+        <v>18</v>
+      </c>
+      <c r="C126" t="str">
+        <v>2025-04-05T12:40:12.339Z</v>
+      </c>
+      <c r="D126" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E126" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>158f6438-2026-466e-92cd-dff3c7b206a5</v>
+      </c>
+      <c r="B127">
+        <v>19</v>
+      </c>
+      <c r="C127" t="str">
+        <v>2025-04-05T12:40:17.352Z</v>
+      </c>
+      <c r="D127" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E127" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>2bf0f60e-5bc2-4cfd-a29e-d1e6821b9db4</v>
+      </c>
+      <c r="B128">
+        <v>20</v>
+      </c>
+      <c r="C128" t="str">
+        <v>2025-04-05T12:40:22.367Z</v>
+      </c>
+      <c r="D128" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E128" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="str">
+        <v>No Match</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G108"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G128"/>
   </ignoredErrors>
 </worksheet>
 </file>